--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,12 +49,6 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,106 +61,118 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -646,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7662337662337663</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -746,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>426</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4583333333333333</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3571428571428572</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,169 +867,97 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L9">
+        <v>69</v>
+      </c>
+      <c r="M9">
+        <v>69</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8">
-        <v>0.9</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>36</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3433476394849785</v>
-      </c>
-      <c r="C9">
-        <v>80</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>153</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L9">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>45</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2790697674418605</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>62</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L10">
-        <v>43</v>
-      </c>
-      <c r="M10">
-        <v>43</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.225</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>62</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8392857142857143</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,21 +969,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,21 +995,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,21 +1021,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,21 +1047,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.76</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1147,16 +1078,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.717948717948718</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7058823529411765</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.684931506849315</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1298,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.62</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.631578947368421</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5454545454545454</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5333333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5208333333333334</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="L28">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="M28">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>69</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.52</v>
+        <v>0.475</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5070422535211268</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L30">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="M30">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>105</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4857142857142857</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4651162790697674</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L32">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="M32">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>69</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4347826086956522</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1636,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.2972972972972973</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1662,33 +1593,137 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.3138075313807531</v>
+      </c>
+      <c r="L36">
+        <v>75</v>
+      </c>
+      <c r="M36">
+        <v>75</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.296875</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K36">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L36">
-        <v>10</v>
-      </c>
-      <c r="M36">
-        <v>10</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>28</v>
+      <c r="K39">
+        <v>0.02125279642058166</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.006121134020618557</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>22</v>
+      </c>
+      <c r="N40">
+        <v>0.86</v>
+      </c>
+      <c r="O40">
+        <v>0.14</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3085</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,79 +43,82 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
+    <t>great</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
@@ -127,52 +130,37 @@
     <t>credit</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>important</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>important</t>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
 </sst>
 </file>
@@ -530,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>0.9615384615384616</v>
@@ -649,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.613013698630137</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -699,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6111111111111112</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1744186046511628</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.164021164021164</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,69 +805,45 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L7">
+        <v>29</v>
+      </c>
+      <c r="M7">
+        <v>29</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>20</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1610738255033557</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>125</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8928571428571429</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,21 +855,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,21 +881,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,21 +907,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,12 +933,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
         <v>0.796875</v>
@@ -1000,16 +964,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,21 +985,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7857142857142857</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1073,21 +1037,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7464788732394366</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7452830188679245</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7407407407407407</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1151,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7254901960784313</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L20">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.62</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6190476190476191</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.6176470588235294</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.6170212765957447</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5957446808510638</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5416666666666666</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5013054830287206</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L28">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M28">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.475</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1437,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4529411764705882</v>
+        <v>0.45</v>
       </c>
       <c r="L30">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M30">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4444444444444444</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1489,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4338983050847458</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L32">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M32">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1515,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4269662921348314</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1541,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.3846153846153846</v>
+        <v>0.359375</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1567,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3424657534246575</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1593,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>48</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.3138075313807531</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L36">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1619,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>164</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.296875</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1645,85 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="L38">
-        <v>22</v>
-      </c>
-      <c r="M38">
-        <v>22</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39">
-        <v>0.02125279642058166</v>
-      </c>
-      <c r="L39">
-        <v>19</v>
-      </c>
-      <c r="M39">
-        <v>19</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40">
-        <v>0.006121134020618557</v>
-      </c>
-      <c r="L40">
-        <v>19</v>
-      </c>
-      <c r="M40">
-        <v>22</v>
-      </c>
-      <c r="N40">
-        <v>0.86</v>
-      </c>
-      <c r="O40">
-        <v>0.14</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3085</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
